--- a/4 3/ExactModelData.xlsx
+++ b/4 3/ExactModelData.xlsx
@@ -1,40 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6170B0D4-ADAC-45D7-91B8-A7ED17FF7748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE853519-E203-430B-B756-6ACBE5C1E9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
     <sheet name="Distances" sheetId="1" r:id="rId2"/>
     <sheet name="Times" sheetId="4" r:id="rId3"/>
-    <sheet name="HorseTrailer" sheetId="2" r:id="rId4"/>
-    <sheet name="HorseStore" sheetId="5" r:id="rId5"/>
-    <sheet name="TrailerStore" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AverageUnload">'1D'!$L$2:$L$7</definedName>
+    <definedName name="CoordinatesX">'1D'!$G$3:$G$6</definedName>
+    <definedName name="CoordinatesY">'1D'!$H$3:$H$6</definedName>
     <definedName name="Demand">'1D'!$I$2:$I$7</definedName>
-    <definedName name="DistanceCost">'1D'!$B$2:$B$4</definedName>
+    <definedName name="DistanceCost">'1D'!$C$2:$C$4</definedName>
     <definedName name="Distances">Distances!$A$1:$F$6</definedName>
-    <definedName name="Horses">'1D'!$A$2:$A$4</definedName>
-    <definedName name="HorseStore">HorseStore!$A$1:$D$3</definedName>
-    <definedName name="HorseTrailer">HorseTrailer!$A$1:$C$3</definedName>
     <definedName name="Locations">'1D'!$F$2:$F$7</definedName>
     <definedName name="PalletCapacity">'1D'!$E$2:$E$4</definedName>
     <definedName name="Stores">'1D'!$F$3:$F$6</definedName>
-    <definedName name="TimeCost">'1D'!$C$2:$C$4</definedName>
+    <definedName name="TimeCost">'1D'!$D$2:$D$4</definedName>
     <definedName name="Times">Times!$A$1:$F$6</definedName>
-    <definedName name="Trailers">'1D'!$D$2:$D$4</definedName>
-    <definedName name="TrailerStore">TrailerStore!$A$1:$D$3</definedName>
+    <definedName name="Vehicles">'1D'!$A$2:$A$4</definedName>
+    <definedName name="VehicleTypes">'1D'!$B$2:$B$4</definedName>
     <definedName name="WindowEnd">'1D'!$K$2:$K$7</definedName>
     <definedName name="WindowStart">'1D'!$J$2:$J$7</definedName>
   </definedNames>
@@ -56,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -78,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Pallets</t>
   </si>
@@ -98,12 +94,6 @@
     <t>Time Cost</t>
   </si>
   <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>Horse</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -113,89 +103,89 @@
     <t>SP2</t>
   </si>
   <si>
+    <t>Depot</t>
+  </si>
+  <si>
+    <t>Average Unload</t>
+  </si>
+  <si>
+    <t>DepotReturn</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Max X &amp; Y</t>
+  </si>
+  <si>
+    <t>Min X &amp; Y</t>
+  </si>
+  <si>
+    <t>Num stores</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Max Demand</t>
+  </si>
+  <si>
+    <t>Distance Cost Min</t>
+  </si>
+  <si>
+    <t>Distance Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Min</t>
+  </si>
+  <si>
+    <t>Chance of having window</t>
+  </si>
+  <si>
+    <t>Unload Min</t>
+  </si>
+  <si>
+    <t>Unload Max</t>
+  </si>
+  <si>
+    <t>Total Demand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vehicle Types</t>
+  </si>
+  <si>
+    <t>Rigid</t>
+  </si>
+  <si>
+    <t>8 metre</t>
+  </si>
+  <si>
+    <t>11 metre</t>
+  </si>
+  <si>
+    <t>Number of vehicle types</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
     <t>SP3</t>
-  </si>
-  <si>
-    <t>C 1</t>
-  </si>
-  <si>
-    <t>C 2</t>
-  </si>
-  <si>
-    <t>C 3</t>
-  </si>
-  <si>
-    <t>Depot</t>
-  </si>
-  <si>
-    <t>Average Unload</t>
-  </si>
-  <si>
-    <t>DepotReturn</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Max X &amp; Y</t>
-  </si>
-  <si>
-    <t>Min X &amp; Y</t>
-  </si>
-  <si>
-    <t>Num stores</t>
-  </si>
-  <si>
-    <t>Max Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Min Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Number of vehicles</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Max Demand</t>
-  </si>
-  <si>
-    <t>Distance Cost Min</t>
-  </si>
-  <si>
-    <t>Distance Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Min</t>
-  </si>
-  <si>
-    <t>Chance of having window</t>
-  </si>
-  <si>
-    <t>Unload Min</t>
-  </si>
-  <si>
-    <t>Unload Max</t>
-  </si>
-  <si>
-    <t>Compatability Chance</t>
-  </si>
-  <si>
-    <t>Total Demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,12 +213,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,17 +248,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,16 +399,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.952042097678671</c:v>
+                  <c:v>-30.951926088594703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.941621013422818</c:v>
+                  <c:v>98.188018588048507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.865728787196204</c:v>
+                  <c:v>40.376394482728116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15.130519599980246</c:v>
+                  <c:v>33.644119627427756</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -441,16 +426,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.6372492172625783</c:v>
+                  <c:v>-80.061664170791261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-34.290023355472869</c:v>
+                  <c:v>86.896073128067016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9205787934056247</c:v>
+                  <c:v>-67.795978391198616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.594854292168179</c:v>
+                  <c:v>-22.700516925854473</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1217,12 +1202,12 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1517,18 +1502,18 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.85546875" customWidth="1"/>
@@ -1536,7 +1521,7 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" customWidth="1"/>
@@ -1548,30 +1533,30 @@
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1583,34 +1568,46 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>Rigid</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.2446907959551949</v>
+      </c>
+      <c r="D2" s="8">
+        <f ca="1"/>
+        <v>12.518856690809345</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" cm="1">
-        <f t="array" aca="1" ref="B2:B4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.0948687530384542</v>
-      </c>
-      <c r="C2" s="2" cm="1">
-        <f t="array" aca="1" ref="C2:C4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>7.1680318259320526</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" cm="1">
-        <f t="array" aca="1" ref="E2:E4" ca="1">_xlfn.RANDARRAY(P8,1,P14,P13,TRUE)</f>
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1629,143 +1626,184 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L6" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>5.04707746232331E-2</v>
+        <v>3.3408458647368383E-2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>4</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
+        <v>1.2446907959551949</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
+        <v>12.518856690809345</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.2703985800130393</v>
+      </c>
+      <c r="D3" s="8">
         <f ca="1"/>
-        <v>1.3797316976967573</v>
-      </c>
-      <c r="C3" s="2">
-        <f ca="1"/>
-        <v>7.6283342236723382</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>9.842216198771121</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H6" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>41.952042097678671</v>
+        <v>-30.951926088594703</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-8.6372492172625783</v>
+        <v>-80.061664170791261</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" aca="1" ref="I3:I6" ca="1">_xlfn.RANDARRAY(P2,1,0,ROUNDUP((P17/P2),0),TRUE)</f>
-        <v>6</v>
+        <f t="array" aca="1" ref="I3:I6" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
+        <v>13</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>0.10331171549320545</v>
+        <v>1.7398544682747902E-2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f ca="1"/>
+        <v>1.2703985800130393</v>
+      </c>
+      <c r="T3">
+        <f ca="1"/>
+        <v>9.842216198771121</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>Rigid</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.2446907959551949</v>
+      </c>
+      <c r="D4" s="8">
         <f ca="1"/>
-        <v>1.1880411379132563</v>
-      </c>
-      <c r="C4" s="2">
-        <f ca="1"/>
-        <v>13.234893165628298</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>12.518856690809345</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-2.941621013422818</v>
+        <v>98.188018588048507</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-34.290023355472869</v>
+        <v>86.896073128067016</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>14</v>
+        <f t="shared" ref="J4:J6" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
+        <v>9</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>7.0388259443767948E-2</v>
+        <v>2.0048230831430036E-2</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P4">
         <v>-100</v>
       </c>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <f ca="1"/>
+        <v>0.81010273637813301</v>
+      </c>
+      <c r="T4">
+        <f ca="1"/>
+        <v>8.1676900780482029</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>41.865728787196204</v>
+        <v>40.376394482728116</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>8.9205787934056247</v>
+        <v>-67.795978391198616</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
@@ -1773,31 +1811,31 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>7.8649898721246753E-2</v>
+        <v>0.15471141652866754</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="P5" s="5">
         <v>0.33</v>
       </c>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-15.130519599980246</v>
+        <v>33.644119627427756</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>66.594854292168179</v>
+        <v>-22.700516925854473</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1809,20 +1847,20 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>9.3198315324347331E-2</v>
+        <v>9.7968041156294955E-2</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P6">
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1843,103 +1881,78 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P7">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O9" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O11" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <f ca="1">SUM(E:E)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17">
-        <f ca="1">SUM(E:E)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18">
+        <v>26</v>
+      </c>
+      <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P19" s="5">
-        <f ca="1">P18/P17</f>
-        <v>0.578125</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="5">
+        <f ca="1">P15/P14</f>
+        <v>0.51851851851851849</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1966,19 +1979,19 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>42.831949642836783</v>
+        <v>85.836424659874965</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>34.415967746171042</v>
+        <v>131.11755991981138</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>42.805560069837043</v>
+        <v>78.908478108785928</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>68.292073050687932</v>
+        <v>40.586207684454521</v>
       </c>
       <c r="F1">
         <f>SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
@@ -1988,7 +2001,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>42.831949642836783</v>
+        <v>85.836424659874965</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -1996,29 +2009,29 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>51.705955251973684</v>
+        <v>211.07347383089387</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>17.558040165114424</v>
+        <v>72.375246895393005</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>94.436689101327246</v>
+        <v>86.388369213695569</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>42.831949642836783</v>
+        <v>85.836424659874965</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>34.415967746171042</v>
+        <v>131.11755991981138</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>51.705955251973684</v>
+        <v>211.07347383089387</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2026,29 +2039,29 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>62.248331176214649</v>
+        <v>165.14180174908472</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>101.61854056584795</v>
+        <v>127.19012321908546</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>34.415967746171042</v>
+        <v>131.11755991981138</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>42.805560069837043</v>
+        <v>78.908478108785928</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>17.558040165114424</v>
+        <v>72.375246895393005</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>62.248331176214649</v>
+        <v>165.14180174908472</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2056,29 +2069,29 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>81.085722445569147</v>
+        <v>45.595220906358684</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>42.805560069837043</v>
+        <v>78.908478108785928</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>68.292073050687932</v>
+        <v>40.586207684454521</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>94.436689101327246</v>
+        <v>86.388369213695569</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>101.61854056584795</v>
+        <v>127.19012321908546</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>81.085722445569147</v>
+        <v>45.595220906358684</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2086,7 +2099,7 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>68.292073050687932</v>
+        <v>40.586207684454521</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2096,19 +2109,19 @@
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>42.831949642836783</v>
+        <v>85.836424659874965</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>34.415967746171042</v>
+        <v>131.11755991981138</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>42.805560069837043</v>
+        <v>78.908478108785928</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>68.292073050687932</v>
+        <v>40.586207684454521</v>
       </c>
       <c r="F6">
         <f>SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2140,19 +2153,19 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.53539937053545983</v>
+        <v>1.0729553082484371</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>0.43019959682713804</v>
+        <v>1.6389694989976422</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.53506950087296301</v>
+        <v>0.98635597635982408</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!E1/80</f>
-        <v>0.8536509131335992</v>
+        <v>0.50732759605568156</v>
       </c>
       <c r="F1">
         <f>Distances!F1/80</f>
@@ -2166,7 +2179,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.53539937053545983</v>
+        <v>1.0729553082484371</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2174,19 +2187,19 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>0.64632444064967109</v>
+        <v>2.6384184228861733</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>0.21947550206393029</v>
+        <v>0.9046905861924126</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>1.1804586137665907</v>
+        <v>1.0798546151711945</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>0.53539937053545983</v>
+        <v>1.0729553082484371</v>
       </c>
       <c r="G2">
         <f>Distances!G2/80</f>
@@ -2196,11 +2209,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>0.43019959682713804</v>
+        <v>1.6389694989976422</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>0.64632444064967109</v>
+        <v>2.6384184228861733</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2208,15 +2221,15 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.77810413970268311</v>
+        <v>2.0642725218635589</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.2702317570730994</v>
+        <v>1.5898765402385684</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>0.43019959682713804</v>
+        <v>1.6389694989976422</v>
       </c>
       <c r="G3">
         <f>Distances!G3/80</f>
@@ -2226,15 +2239,15 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.53506950087296301</v>
+        <v>0.98635597635982408</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>0.21947550206393029</v>
+        <v>0.9046905861924126</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.77810413970268311</v>
+        <v>2.0642725218635589</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2242,11 +2255,11 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>1.0135715305696142</v>
+        <v>0.5699402613294835</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.53506950087296301</v>
+        <v>0.98635597635982408</v>
       </c>
       <c r="G4">
         <f>Distances!G4/80</f>
@@ -2256,19 +2269,19 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>0.8536509131335992</v>
+        <v>0.50732759605568156</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>1.1804586137665907</v>
+        <v>1.0798546151711945</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.2702317570730994</v>
+        <v>1.5898765402385684</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>1.0135715305696142</v>
+        <v>0.5699402613294835</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2276,7 +2289,7 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>0.8536509131335992</v>
+        <v>0.50732759605568156</v>
       </c>
       <c r="G5">
         <f>Distances!G5/80</f>
@@ -2290,19 +2303,19 @@
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>0.53539937053545983</v>
+        <v>1.0729553082484371</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>0.43019959682713804</v>
+        <v>1.6389694989976422</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.53506950087296301</v>
+        <v>0.98635597635982408</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>0.8536509131335992</v>
+        <v>0.50732759605568156</v>
       </c>
       <c r="F6">
         <f>Distances!F6/80</f>
@@ -2341,390 +2354,6 @@
       <c r="G7">
         <f>Distances!G7/80</f>
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D636C-B1F2-40ED-AFFD-CEAECA9A3EA3}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3193DF46-A5F5-411E-9E65-0CD84739E551}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A14196F-B2E4-4597-BD06-5E39E2E8AD11}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
